--- a/outputs-r202/train-g__Eubacterium_F.xlsx
+++ b/outputs-r202/train-g__Eubacterium_F.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="346">
   <si>
     <t>Row</t>
   </si>
@@ -658,6 +660,402 @@
   </si>
   <si>
     <t>RS_GCF_000518685.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000433735.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000433735.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000433735.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002362575.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493135.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493135.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493135.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002493135.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002431395.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002431395.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002431395.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003453515.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491505.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491505.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003497665.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538975.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545645.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_902364395.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318295.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318295.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902755855.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902755855.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902755855.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319095.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788395.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788395.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788395.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539115.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539115.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539115.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900758065.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900758065.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000433735.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000433735.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539785.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434115.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554825.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687695.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002362575.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002362575.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002431395.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002431395.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435545.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490465.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003453515.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003453515.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003453515.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001916225.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491505.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538975.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538975.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318295.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318295.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902755855.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902755855.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902755855.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902755855.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319095.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319095.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319095.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319095.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788395.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539115.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539115.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900758065.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900758065.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900758065.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900758065.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900758065.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518685.1_8.fasta</t>
   </si>
 </sst>
 </file>
@@ -678,7 +1076,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -692,11 +1090,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -704,6 +1106,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10840,4 +11246,6758 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P67"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="28.5703125" customWidth="true"/>
+    <col min="3" max="3" width="28.5703125" customWidth="true"/>
+    <col min="4" max="4" width="28.5703125" customWidth="true"/>
+    <col min="5" max="5" width="28.5703125" customWidth="true"/>
+    <col min="6" max="6" width="28.5703125" customWidth="true"/>
+    <col min="7" max="7" width="28.5703125" customWidth="true"/>
+    <col min="8" max="8" width="28.5703125" customWidth="true"/>
+    <col min="9" max="9" width="28.5703125" customWidth="true"/>
+    <col min="10" max="10" width="28.5703125" customWidth="true"/>
+    <col min="11" max="11" width="28.5703125" customWidth="true"/>
+    <col min="12" max="12" width="28.5703125" customWidth="true"/>
+    <col min="13" max="13" width="28.5703125" customWidth="true"/>
+    <col min="14" max="14" width="29.7109375" customWidth="true"/>
+    <col min="15" max="15" width="10.28515625" customWidth="true"/>
+    <col min="16" max="16" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2">
+        <v>0.9972760201518277</v>
+      </c>
+      <c r="C2">
+        <v>0.0022465363213199849</v>
+      </c>
+      <c r="D2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="E2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="F2">
+        <v>0.00047744346758186762</v>
+      </c>
+      <c r="G2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="H2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="K2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="L2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="M2">
+        <v>5.9070728771371437e-11</v>
+      </c>
+      <c r="N2">
+        <v>2.220040820161581e-14</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3">
+        <v>0.99890826168097602</v>
+      </c>
+      <c r="C3">
+        <v>0.0006377905884956648</v>
+      </c>
+      <c r="D3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="F3">
+        <v>0.00045394768512740881</v>
+      </c>
+      <c r="G3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="H3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="K3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="L3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="M3">
+        <v>4.5201275708146119e-11</v>
+      </c>
+      <c r="N3">
+        <v>2.2202601746062804e-14</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4">
+        <v>0.99723745431890598</v>
+      </c>
+      <c r="C4">
+        <v>0.0022711109222289909</v>
+      </c>
+      <c r="D4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="F4">
+        <v>0.00049143471319269209</v>
+      </c>
+      <c r="G4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="H4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="K4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="L4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="M4">
+        <v>4.5472567878653013e-11</v>
+      </c>
+      <c r="N4">
+        <v>2.2200423286512696e-14</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5">
+        <v>0.99834637144264249</v>
+      </c>
+      <c r="C5">
+        <v>0.0011117125858757803</v>
+      </c>
+      <c r="D5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="F5">
+        <v>0.00054191595718382397</v>
+      </c>
+      <c r="G5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="H5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="I5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="J5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="K5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="L5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="M5">
+        <v>1.4098040422382205e-11</v>
+      </c>
+      <c r="N5">
+        <v>2.2201649760399402e-14</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6">
+        <v>0.99729300668570597</v>
+      </c>
+      <c r="C6">
+        <v>0.00040823955436823011</v>
+      </c>
+      <c r="D6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="E6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="F6">
+        <v>0.0022987537560825674</v>
+      </c>
+      <c r="G6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="H6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="K6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="L6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="M6">
+        <v>3.6434150623846235e-12</v>
+      </c>
+      <c r="N6">
+        <v>2.2200389902846376e-14</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7">
+        <v>0.99471088898815019</v>
+      </c>
+      <c r="C7">
+        <v>0.0024890087727180406</v>
+      </c>
+      <c r="D7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="E7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="F7">
+        <v>0.0028001022381175535</v>
+      </c>
+      <c r="G7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="H7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="K7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="L7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="M7">
+        <v>8.1443970198796527e-13</v>
+      </c>
+      <c r="N7">
+        <v>2.2201725612872845e-14</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8">
+        <v>0.99265133136183159</v>
+      </c>
+      <c r="C8">
+        <v>0.0056810253825516485</v>
+      </c>
+      <c r="D8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="E8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="F8">
+        <v>0.0016676432536532123</v>
+      </c>
+      <c r="G8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="H8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="I8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="J8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="K8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="L8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="M8">
+        <v>1.7636119898740045e-12</v>
+      </c>
+      <c r="N8">
+        <v>2.2201696402600632e-14</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9">
+        <v>1.0633389582869671e-13</v>
+      </c>
+      <c r="C9">
+        <v>0.37529194156244172</v>
+      </c>
+      <c r="D9">
+        <v>1.0633389582869668e-13</v>
+      </c>
+      <c r="E9">
+        <v>1.0633389582869671e-13</v>
+      </c>
+      <c r="F9">
+        <v>0.61739756326647277</v>
+      </c>
+      <c r="G9">
+        <v>1.0633389582869678e-13</v>
+      </c>
+      <c r="H9">
+        <v>1.0633389582869678e-13</v>
+      </c>
+      <c r="I9">
+        <v>1.0633389582869678e-13</v>
+      </c>
+      <c r="J9">
+        <v>1.0633389582869678e-13</v>
+      </c>
+      <c r="K9">
+        <v>1.0633389582869665e-13</v>
+      </c>
+      <c r="L9">
+        <v>1.0633389582869669e-13</v>
+      </c>
+      <c r="M9">
+        <v>0.0073104951700221563</v>
+      </c>
+      <c r="N9">
+        <v>1.0633389582869669e-13</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.98441339425074426</v>
+      </c>
+      <c r="D10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="E10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="F10">
+        <v>0.00059967515594887006</v>
+      </c>
+      <c r="G10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="H10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="K10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="L10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="M10">
+        <v>0.014986930593084856</v>
+      </c>
+      <c r="N10">
+        <v>2.2200488240986369e-14</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="C11">
+        <v>0.97697397772511674</v>
+      </c>
+      <c r="D11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="E11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="F11">
+        <v>0.007840333329137408</v>
+      </c>
+      <c r="G11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="K11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="L11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="M11">
+        <v>0.015185688945523841</v>
+      </c>
+      <c r="N11">
+        <v>2.220296676445942e-14</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.94890879015831509</v>
+      </c>
+      <c r="D12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="F12">
+        <v>0.049432795943570529</v>
+      </c>
+      <c r="G12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="H12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="K12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="L12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="M12">
+        <v>0.0016584138978924393</v>
+      </c>
+      <c r="N12">
+        <v>2.2200622901164123e-14</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.95572513342583942</v>
+      </c>
+      <c r="D13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="E13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="F13">
+        <v>0.043288956548853882</v>
+      </c>
+      <c r="G13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="K13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="L13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="M13">
+        <v>0.00098591002508473594</v>
+      </c>
+      <c r="N13">
+        <v>2.2199893975435537e-14</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14">
+        <v>2.3391192471791905e-13</v>
+      </c>
+      <c r="C14">
+        <v>0.84409286660039573</v>
+      </c>
+      <c r="D14">
+        <v>2.3391192471791905e-13</v>
+      </c>
+      <c r="E14">
+        <v>2.3391192471791905e-13</v>
+      </c>
+      <c r="F14">
+        <v>0.082324990928761096</v>
+      </c>
+      <c r="G14">
+        <v>2.3391192471791915e-13</v>
+      </c>
+      <c r="H14">
+        <v>2.3391192471791905e-13</v>
+      </c>
+      <c r="I14">
+        <v>2.3391192471791905e-13</v>
+      </c>
+      <c r="J14">
+        <v>2.3391192471791905e-13</v>
+      </c>
+      <c r="K14">
+        <v>2.339119247179186e-13</v>
+      </c>
+      <c r="L14">
+        <v>2.339119247179186e-13</v>
+      </c>
+      <c r="M14">
+        <v>0.0735821424685041</v>
+      </c>
+      <c r="N14">
+        <v>2.3391192471791875e-13</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15">
+        <v>5.9016998107281178e-14</v>
+      </c>
+      <c r="C15">
+        <v>0.96426409767036736</v>
+      </c>
+      <c r="D15">
+        <v>5.9016998107281178e-14</v>
+      </c>
+      <c r="E15">
+        <v>5.901699810728114e-14</v>
+      </c>
+      <c r="F15">
+        <v>0.006071026332712422</v>
+      </c>
+      <c r="G15">
+        <v>5.9016998107281102e-14</v>
+      </c>
+      <c r="H15">
+        <v>5.9016998107281077e-14</v>
+      </c>
+      <c r="I15">
+        <v>5.9016998107281077e-14</v>
+      </c>
+      <c r="J15">
+        <v>5.9016998107281077e-14</v>
+      </c>
+      <c r="K15">
+        <v>5.9016998107280976e-14</v>
+      </c>
+      <c r="L15">
+        <v>5.9016998107281001e-14</v>
+      </c>
+      <c r="M15">
+        <v>0.029664875996329512</v>
+      </c>
+      <c r="N15">
+        <v>5.9016998107281102e-14</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="C16">
+        <v>0.98274714857425727</v>
+      </c>
+      <c r="D16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="E16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="F16">
+        <v>0.00048314467985384365</v>
+      </c>
+      <c r="G16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="H16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="J16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="K16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="L16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="M16">
+        <v>0.016769706745666912</v>
+      </c>
+      <c r="N16">
+        <v>2.22006268773887e-14</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17">
+        <v>1.0094219955316718e-13</v>
+      </c>
+      <c r="C17">
+        <v>0.966408233826483</v>
+      </c>
+      <c r="D17">
+        <v>1.0094219955316718e-13</v>
+      </c>
+      <c r="E17">
+        <v>1.0094219955316718e-13</v>
+      </c>
+      <c r="F17">
+        <v>0.017824457483784768</v>
+      </c>
+      <c r="G17">
+        <v>1.0094219955316701e-13</v>
+      </c>
+      <c r="H17">
+        <v>1.0094219955316697e-13</v>
+      </c>
+      <c r="I17">
+        <v>1.0094219955316697e-13</v>
+      </c>
+      <c r="J17">
+        <v>1.0094219955316697e-13</v>
+      </c>
+      <c r="K17">
+        <v>1.0094219955316709e-13</v>
+      </c>
+      <c r="L17">
+        <v>1.00942199553167e-13</v>
+      </c>
+      <c r="M17">
+        <v>0.015767308688722944</v>
+      </c>
+      <c r="N17">
+        <v>1.00942199553167e-13</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="C18">
+        <v>0.99142860348172013</v>
+      </c>
+      <c r="D18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="E18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="F18">
+        <v>0.00067196881121897589</v>
+      </c>
+      <c r="G18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="H18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="K18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="L18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="M18">
+        <v>0.0078994277068388987</v>
+      </c>
+      <c r="N18">
+        <v>2.2200841753066546e-14</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19">
+        <v>7.0547858407013397e-14</v>
+      </c>
+      <c r="C19">
+        <v>0.98415504678489707</v>
+      </c>
+      <c r="D19">
+        <v>7.0547858407013498e-14</v>
+      </c>
+      <c r="E19">
+        <v>7.0547858407013472e-14</v>
+      </c>
+      <c r="F19">
+        <v>0.0018038610793939657</v>
+      </c>
+      <c r="G19">
+        <v>7.0547858407013359e-14</v>
+      </c>
+      <c r="H19">
+        <v>7.0547858407013308e-14</v>
+      </c>
+      <c r="I19">
+        <v>7.0547858407013308e-14</v>
+      </c>
+      <c r="J19">
+        <v>7.0547858407013308e-14</v>
+      </c>
+      <c r="K19">
+        <v>7.0547858407013662e-14</v>
+      </c>
+      <c r="L19">
+        <v>7.0547858407013826e-14</v>
+      </c>
+      <c r="M19">
+        <v>0.014041092135003874</v>
+      </c>
+      <c r="N19">
+        <v>7.0547858407013725e-14</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20">
+        <v>3.2299532853751676e-14</v>
+      </c>
+      <c r="C20">
+        <v>0.99385012135249562</v>
+      </c>
+      <c r="D20">
+        <v>3.2299532853751777e-14</v>
+      </c>
+      <c r="E20">
+        <v>3.2299532853751733e-14</v>
+      </c>
+      <c r="F20">
+        <v>0.0034359953419392654</v>
+      </c>
+      <c r="G20">
+        <v>3.2299532853749392e-14</v>
+      </c>
+      <c r="H20">
+        <v>3.2299532853749341e-14</v>
+      </c>
+      <c r="I20">
+        <v>3.2299532853749341e-14</v>
+      </c>
+      <c r="J20">
+        <v>3.2299532853749341e-14</v>
+      </c>
+      <c r="K20">
+        <v>3.229953285374924e-14</v>
+      </c>
+      <c r="L20">
+        <v>3.229953285374919e-14</v>
+      </c>
+      <c r="M20">
+        <v>0.0027138833052419149</v>
+      </c>
+      <c r="N20">
+        <v>3.229953285374924e-14</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="C21">
+        <v>1.5231294598231684e-08</v>
+      </c>
+      <c r="D21">
+        <v>0.99731503314907122</v>
+      </c>
+      <c r="E21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="F21">
+        <v>0.0026849516194120786</v>
+      </c>
+      <c r="G21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="H21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="I21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="J21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="K21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="L21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="M21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="N21">
+        <v>2.2200314752252133e-14</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="C22">
+        <v>3.0457104320391207e-07</v>
+      </c>
+      <c r="D22">
+        <v>0.99998989146140194</v>
+      </c>
+      <c r="E22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="F22">
+        <v>9.8039673328506999e-06</v>
+      </c>
+      <c r="G22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="H22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="J22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="K22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="L22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="M22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="N22">
+        <v>2.2204443227273358e-14</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="C23">
+        <v>7.7415869462048298e-09</v>
+      </c>
+      <c r="D23">
+        <v>0.99999964677680742</v>
+      </c>
+      <c r="E23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="F23">
+        <v>3.4548138357013002e-07</v>
+      </c>
+      <c r="G23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="H23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="I23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="J23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="K23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="L23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="M23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="N23">
+        <v>2.2204459889185646e-14</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="C24">
+        <v>9.1981285756632966e-10</v>
+      </c>
+      <c r="D24">
+        <v>0.99988144082574493</v>
+      </c>
+      <c r="E24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="F24">
+        <v>0.00011855825422026912</v>
+      </c>
+      <c r="G24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="H24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="J24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="K24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="L24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="M24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="N24">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="C25">
+        <v>1.374096581395107e-10</v>
+      </c>
+      <c r="D25">
+        <v>0.99985463167486044</v>
+      </c>
+      <c r="E25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="F25">
+        <v>0.0001453681875079674</v>
+      </c>
+      <c r="G25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="H25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="I25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="J25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="K25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="L25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="M25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="N25">
+        <v>2.2204212304263504e-14</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="C26">
+        <v>9.1981285756632966e-10</v>
+      </c>
+      <c r="D26">
+        <v>0.99988144082574493</v>
+      </c>
+      <c r="E26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="F26">
+        <v>0.00011855825422026912</v>
+      </c>
+      <c r="G26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="H26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="J26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="K26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="L26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="M26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="N26">
+        <v>2.2204258059747583e-14</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="C27">
+        <v>3.0992876664849668e-10</v>
+      </c>
+      <c r="D27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="E27">
+        <v>0.99910444901810413</v>
+      </c>
+      <c r="F27">
+        <v>0.0001802739381295238</v>
+      </c>
+      <c r="G27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="H27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="K27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="L27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="M27">
+        <v>0.00071527673363776364</v>
+      </c>
+      <c r="N27">
+        <v>2.2202934883717133e-14</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="C28">
+        <v>1.7568557075135689e-11</v>
+      </c>
+      <c r="D28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="E28">
+        <v>0.99341982951532315</v>
+      </c>
+      <c r="F28">
+        <v>0.0065654970021766521</v>
+      </c>
+      <c r="G28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="H28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="K28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="L28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="M28">
+        <v>1.4673464731817436e-05</v>
+      </c>
+      <c r="N28">
+        <v>2.2200364786497453e-14</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="C29">
+        <v>5.6450407615423861e-11</v>
+      </c>
+      <c r="D29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="E29">
+        <v>0.97492153916732449</v>
+      </c>
+      <c r="F29">
+        <v>0.025074685860996968</v>
+      </c>
+      <c r="G29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="H29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="K29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="L29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="M29">
+        <v>3.774915028169163e-06</v>
+      </c>
+      <c r="N29">
+        <v>2.2200449359707365e-14</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="C30">
+        <v>1.1888476011366833e-11</v>
+      </c>
+      <c r="D30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="E30">
+        <v>0.99640522685455679</v>
+      </c>
+      <c r="F30">
+        <v>0.0029785969730790362</v>
+      </c>
+      <c r="G30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="H30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="K30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="L30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="M30">
+        <v>0.00061617616027574696</v>
+      </c>
+      <c r="N30">
+        <v>2.2200680331711189e-14</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="C31">
+        <v>7.4865726398369211e-11</v>
+      </c>
+      <c r="D31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="E31">
+        <v>0.99323507081282969</v>
+      </c>
+      <c r="F31">
+        <v>7.6980918311878361e-06</v>
+      </c>
+      <c r="G31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="H31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="K31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="L31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="M31">
+        <v>0.0067572310202735015</v>
+      </c>
+      <c r="N31">
+        <v>2.2200358429124777e-14</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32">
+        <v>3.4152282516477065e-14</v>
+      </c>
+      <c r="C32">
+        <v>0.011122422080270792</v>
+      </c>
+      <c r="D32">
+        <v>3.4152282516477115e-14</v>
+      </c>
+      <c r="E32">
+        <v>3.4152282516477014e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.98795530958800226</v>
+      </c>
+      <c r="G32">
+        <v>3.4152282516477021e-14</v>
+      </c>
+      <c r="H32">
+        <v>3.4152282516477021e-14</v>
+      </c>
+      <c r="I32">
+        <v>3.4152282516477021e-14</v>
+      </c>
+      <c r="J32">
+        <v>3.4152282516477021e-14</v>
+      </c>
+      <c r="K32">
+        <v>3.4152282516477071e-14</v>
+      </c>
+      <c r="L32">
+        <v>3.4152282516477128e-14</v>
+      </c>
+      <c r="M32">
+        <v>0.0009222683313850075</v>
+      </c>
+      <c r="N32">
+        <v>3.4152282516477039e-14</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33">
+        <v>6.8415466656402737e-14</v>
+      </c>
+      <c r="C33">
+        <v>0.0018318864242558078</v>
+      </c>
+      <c r="D33">
+        <v>6.8415466656402812e-14</v>
+      </c>
+      <c r="E33">
+        <v>6.8415466656402775e-14</v>
+      </c>
+      <c r="F33">
+        <v>0.84233471331492704</v>
+      </c>
+      <c r="G33">
+        <v>6.8415466656402699e-14</v>
+      </c>
+      <c r="H33">
+        <v>6.8415466656402699e-14</v>
+      </c>
+      <c r="I33">
+        <v>6.8415466656402699e-14</v>
+      </c>
+      <c r="J33">
+        <v>0.15477794888059504</v>
+      </c>
+      <c r="K33">
+        <v>6.8415466656402724e-14</v>
+      </c>
+      <c r="L33">
+        <v>6.8415466656402724e-14</v>
+      </c>
+      <c r="M33">
+        <v>0.0010554513796063997</v>
+      </c>
+      <c r="N33">
+        <v>6.8415466656402711e-14</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="C34">
+        <v>1.1767279206170628e-06</v>
+      </c>
+      <c r="D34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="F34">
+        <v>0.9400421038412784</v>
+      </c>
+      <c r="G34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="H34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="I34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="J34">
+        <v>0.056102240976666801</v>
+      </c>
+      <c r="K34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="L34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="M34">
+        <v>0.0038544784539343976</v>
+      </c>
+      <c r="N34">
+        <v>2.2197712987709526e-14</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="C35">
+        <v>0.083831361969638571</v>
+      </c>
+      <c r="D35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="E35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="F35">
+        <v>0.00036472046639732995</v>
+      </c>
+      <c r="G35">
+        <v>0.91382135741969428</v>
+      </c>
+      <c r="H35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="I35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="J35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="K35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="L35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="M35">
+        <v>0.0019825601440700644</v>
+      </c>
+      <c r="N35">
+        <v>2.2190823500124439e-14</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="C36">
+        <v>0.011194346216368114</v>
+      </c>
+      <c r="D36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="E36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="F36">
+        <v>0.00010743796993565325</v>
+      </c>
+      <c r="G36">
+        <v>0.9844500762611833</v>
+      </c>
+      <c r="H36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="I36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="J36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="K36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="L36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="M36">
+        <v>0.0042481395523131906</v>
+      </c>
+      <c r="N36">
+        <v>2.2202807224432204e-14</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="C37">
+        <v>0.00069352822809323343</v>
+      </c>
+      <c r="D37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="E37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="F37">
+        <v>0.022660560857579656</v>
+      </c>
+      <c r="G37">
+        <v>0.97650919017684634</v>
+      </c>
+      <c r="H37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="I37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="J37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="K37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="L37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="M37">
+        <v>0.00013672073728103823</v>
+      </c>
+      <c r="N37">
+        <v>2.2198714136260573e-14</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="C38">
+        <v>0.0090964175282253357</v>
+      </c>
+      <c r="D38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="E38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="F38">
+        <v>0.0012363693542905847</v>
+      </c>
+      <c r="G38">
+        <v>0.98695232877244354</v>
+      </c>
+      <c r="H38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="I38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="J38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="K38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="L38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="M38">
+        <v>0.0027148843448407257</v>
+      </c>
+      <c r="N38">
+        <v>2.2202616197865243e-14</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="C39">
+        <v>8.7358908417844114e-12</v>
+      </c>
+      <c r="D39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="E39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="F39">
+        <v>3.2854914974212639e-06</v>
+      </c>
+      <c r="G39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="H39">
+        <v>0.99965290633981474</v>
+      </c>
+      <c r="I39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="J39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="K39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="L39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="M39">
+        <v>0.00034380815975204213</v>
+      </c>
+      <c r="N39">
+        <v>2.2203868248592696e-14</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="C40">
+        <v>1.2841212741439104e-11</v>
+      </c>
+      <c r="D40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="E40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="F40">
+        <v>7.200320383291876e-05</v>
+      </c>
+      <c r="G40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="H40">
+        <v>0.99991651280325144</v>
+      </c>
+      <c r="I40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="J40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="K40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="L40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="M40">
+        <v>1.1483979874692569e-05</v>
+      </c>
+      <c r="N40">
+        <v>2.2204317928380042e-14</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="C41">
+        <v>3.1530207730172378e-12</v>
+      </c>
+      <c r="D41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="F41">
+        <v>1.0942572679957765e-06</v>
+      </c>
+      <c r="G41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="H41">
+        <v>0.998059897897834</v>
+      </c>
+      <c r="I41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="J41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="K41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="L41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="M41">
+        <v>0.001939007841545112</v>
+      </c>
+      <c r="N41">
+        <v>2.220116560879846e-14</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="C42">
+        <v>1.4162481656454929e-11</v>
+      </c>
+      <c r="D42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="F42">
+        <v>5.9915040264151115e-06</v>
+      </c>
+      <c r="G42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="H42">
+        <v>0.99968039329902181</v>
+      </c>
+      <c r="I42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="J42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="K42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="L42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="M42">
+        <v>0.00031361518258950824</v>
+      </c>
+      <c r="N42">
+        <v>2.2203915105366057e-14</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="C43">
+        <v>0.00011634461011550263</v>
+      </c>
+      <c r="D43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="F43">
+        <v>1.6982777135648917e-13</v>
+      </c>
+      <c r="G43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="H43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="I43">
+        <v>0.99440986040010892</v>
+      </c>
+      <c r="J43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="K43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="L43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="M43">
+        <v>0.0054737949894059319</v>
+      </c>
+      <c r="N43">
+        <v>2.2200452042262794e-14</v>
+      </c>
+      <c r="O43">
+        <v>8</v>
+      </c>
+      <c r="P43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.5775247649107182e-12</v>
+      </c>
+      <c r="D44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="F44">
+        <v>1.6722413761383185e-11</v>
+      </c>
+      <c r="G44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="I44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="J44">
+        <v>0.99997190617812615</v>
+      </c>
+      <c r="K44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="M44">
+        <v>2.8093802374172333e-05</v>
+      </c>
+      <c r="N44">
+        <v>2.2204412511219284e-14</v>
+      </c>
+      <c r="O44">
+        <v>9</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="C45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="D45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="E45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="F45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="G45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="H45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="I45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="J45">
+        <v>0.99970660923027854</v>
+      </c>
+      <c r="K45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="L45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="M45">
+        <v>0.00029339076947734039</v>
+      </c>
+      <c r="N45">
+        <v>2.220395980248505e-14</v>
+      </c>
+      <c r="O45">
+        <v>9</v>
+      </c>
+      <c r="P45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="C46">
+        <v>8.4658620921360405e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="F46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="G46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="H46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="I46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="J46">
+        <v>0.99791392063811235</v>
+      </c>
+      <c r="K46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="L46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="M46">
+        <v>0.0020860793615810756</v>
+      </c>
+      <c r="N46">
+        <v>2.2200919222087015e-14</v>
+      </c>
+      <c r="O46">
+        <v>9</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="E47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="F47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="G47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="H47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="J47">
+        <v>0.99989606421518284</v>
+      </c>
+      <c r="K47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="L47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="M47">
+        <v>0.0001039357845728684</v>
+      </c>
+      <c r="N47">
+        <v>2.2204283020692782e-14</v>
+      </c>
+      <c r="O47">
+        <v>9</v>
+      </c>
+      <c r="P47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="C48">
+        <v>6.2888405510566041e-10</v>
+      </c>
+      <c r="D48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="F48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="G48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="H48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="J48">
+        <v>0.96849353926320891</v>
+      </c>
+      <c r="K48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="L48">
+        <v>2.2200572813455645e-14</v>
+      </c>
+      <c r="M48">
+        <v>4.4571974361876062e-10</v>
+      </c>
+      <c r="N48">
+        <v>0.031506459661987535</v>
+      </c>
+      <c r="O48">
+        <v>9</v>
+      </c>
+      <c r="P48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.7650232369844033e-12</v>
+      </c>
+      <c r="D49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="F49">
+        <v>3.182074763269497e-10</v>
+      </c>
+      <c r="G49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="H49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="J49">
+        <v>0.99997559769705535</v>
+      </c>
+      <c r="K49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="L49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="M49">
+        <v>2.4401981772154231e-05</v>
+      </c>
+      <c r="N49">
+        <v>2.2204418815492208e-14</v>
+      </c>
+      <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="P49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="C50">
+        <v>0.0028573456783411856</v>
+      </c>
+      <c r="D50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="E50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="F50">
+        <v>6.4128218541005693e-05</v>
+      </c>
+      <c r="G50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="H50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="I50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="J50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="K50">
+        <v>0.99707852610289582</v>
+      </c>
+      <c r="L50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="M50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="N50">
+        <v>2.2200337182692226e-14</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51">
+        <v>0.06899911113160645</v>
+      </c>
+      <c r="C51">
+        <v>0.06906641245996839</v>
+      </c>
+      <c r="D51">
+        <v>0.06899911113160638</v>
+      </c>
+      <c r="E51">
+        <v>0.068999111131606325</v>
+      </c>
+      <c r="F51">
+        <v>0.083291770821423014</v>
+      </c>
+      <c r="G51">
+        <v>0.068999111131606464</v>
+      </c>
+      <c r="H51">
+        <v>0.068999111131606408</v>
+      </c>
+      <c r="I51">
+        <v>0.068999111131606408</v>
+      </c>
+      <c r="J51">
+        <v>0.06899911113160645</v>
+      </c>
+      <c r="K51">
+        <v>0.15765070540254725</v>
+      </c>
+      <c r="L51">
+        <v>0.068999111131605464</v>
+      </c>
+      <c r="M51">
+        <v>0.068999111131605464</v>
+      </c>
+      <c r="N51">
+        <v>0.068999111131605464</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.4777592183344364e-05</v>
+      </c>
+      <c r="D52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="F52">
+        <v>0.0073235513639043938</v>
+      </c>
+      <c r="G52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="H52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="J52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="K52">
+        <v>0.99265167104369023</v>
+      </c>
+      <c r="L52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="M52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="N52">
+        <v>2.2200375833401827e-14</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="C53">
+        <v>6.0230212509078413e-05</v>
+      </c>
+      <c r="D53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="E53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="F53">
+        <v>2.1444000589193614e-05</v>
+      </c>
+      <c r="G53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="H53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="J53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="K53">
+        <v>0.99991832578667983</v>
+      </c>
+      <c r="L53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="M53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="N53">
+        <v>2.2204321023518093e-14</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="C54">
+        <v>8.5831505539695865e-05</v>
+      </c>
+      <c r="D54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="E54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="F54">
+        <v>0.00039295200512688548</v>
+      </c>
+      <c r="G54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="H54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="J54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="K54">
+        <v>0.99952121648911141</v>
+      </c>
+      <c r="L54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="M54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="N54">
+        <v>2.2203643863366902e-14</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="C55">
+        <v>7.3389013090034873e-05</v>
+      </c>
+      <c r="D55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="G55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="H55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="J55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="K55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="L55">
+        <v>0.99982363965749033</v>
+      </c>
+      <c r="M55">
+        <v>0.00010297132919757523</v>
+      </c>
+      <c r="N55">
+        <v>2.2204159418830547e-14</v>
+      </c>
+      <c r="O55">
+        <v>11</v>
+      </c>
+      <c r="P55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="C56">
+        <v>9.9873148053205645e-09</v>
+      </c>
+      <c r="D56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="E56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="F56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="G56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="H56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="I56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="J56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="K56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="L56">
+        <v>0.78182827046443659</v>
+      </c>
+      <c r="M56">
+        <v>0.21817171954802655</v>
+      </c>
+      <c r="N56">
+        <v>2.220216804583948e-14</v>
+      </c>
+      <c r="O56">
+        <v>11</v>
+      </c>
+      <c r="P56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="C57">
+        <v>1.8933474245419197e-05</v>
+      </c>
+      <c r="D57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="E57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="F57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="G57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="H57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="I57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="J57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="K57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="L57">
+        <v>0.99998093439148605</v>
+      </c>
+      <c r="M57">
+        <v>1.3213404639780486e-07</v>
+      </c>
+      <c r="N57">
+        <v>2.2204427929591571e-14</v>
+      </c>
+      <c r="O57">
+        <v>11</v>
+      </c>
+      <c r="P57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="C58">
+        <v>1.074507768058776e-05</v>
+      </c>
+      <c r="D58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="E58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="F58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="G58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="H58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="I58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="J58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="K58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="L58">
+        <v>0.99998924387472921</v>
+      </c>
+      <c r="M58">
+        <v>1.1047368134870857e-08</v>
+      </c>
+      <c r="N58">
+        <v>2.2204442121240166e-14</v>
+      </c>
+      <c r="O58">
+        <v>11</v>
+      </c>
+      <c r="P58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59">
+        <v>2.2752496600722542e-14</v>
+      </c>
+      <c r="C59">
+        <v>0.021547842412812959</v>
+      </c>
+      <c r="D59">
+        <v>2.2752496600722542e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.2752496600722542e-14</v>
+      </c>
+      <c r="F59">
+        <v>0.07213596870815929</v>
+      </c>
+      <c r="G59">
+        <v>2.2752496600722549e-14</v>
+      </c>
+      <c r="H59">
+        <v>2.2752496600722549e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2752496600722549e-14</v>
+      </c>
+      <c r="J59">
+        <v>2.2752496600722549e-14</v>
+      </c>
+      <c r="K59">
+        <v>2.275249660072252e-14</v>
+      </c>
+      <c r="L59">
+        <v>2.275249660072252e-14</v>
+      </c>
+      <c r="M59">
+        <v>0.90631618887880028</v>
+      </c>
+      <c r="N59">
+        <v>2.275249660072252e-14</v>
+      </c>
+      <c r="O59">
+        <v>12</v>
+      </c>
+      <c r="P59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="C60">
+        <v>3.941457171360318e-08</v>
+      </c>
+      <c r="D60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="E60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="F60">
+        <v>0.94405952338373222</v>
+      </c>
+      <c r="G60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="H60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="J60">
+        <v>0.055873708579731063</v>
+      </c>
+      <c r="K60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="L60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="M60">
+        <v>6.672862176521481e-05</v>
+      </c>
+      <c r="N60">
+        <v>2.2199870658393823e-14</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61">
+        <v>2.4912492314996054e-14</v>
+      </c>
+      <c r="C61">
+        <v>0.007313880301011013</v>
+      </c>
+      <c r="D61">
+        <v>2.4912492314996063e-14</v>
+      </c>
+      <c r="E61">
+        <v>2.4912492314996054e-14</v>
+      </c>
+      <c r="F61">
+        <v>0.059800430117069113</v>
+      </c>
+      <c r="G61">
+        <v>2.4912492314996079e-14</v>
+      </c>
+      <c r="H61">
+        <v>2.4912492314996079e-14</v>
+      </c>
+      <c r="I61">
+        <v>2.4912492314996079e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.4912492314996079e-14</v>
+      </c>
+      <c r="K61">
+        <v>2.4912492314996054e-14</v>
+      </c>
+      <c r="L61">
+        <v>2.4912492314996054e-14</v>
+      </c>
+      <c r="M61">
+        <v>0.93288568958167073</v>
+      </c>
+      <c r="N61">
+        <v>2.4912492314996054e-14</v>
+      </c>
+      <c r="O61">
+        <v>12</v>
+      </c>
+      <c r="P61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62">
+        <v>2.5170955998029264e-13</v>
+      </c>
+      <c r="C62">
+        <v>0.028483275820486788</v>
+      </c>
+      <c r="D62">
+        <v>2.5170955998029264e-13</v>
+      </c>
+      <c r="E62">
+        <v>2.5170955998029233e-13</v>
+      </c>
+      <c r="F62">
+        <v>0.062059220012081133</v>
+      </c>
+      <c r="G62">
+        <v>2.5170955998029213e-13</v>
+      </c>
+      <c r="H62">
+        <v>2.5170955998029213e-13</v>
+      </c>
+      <c r="I62">
+        <v>2.5170955998029213e-13</v>
+      </c>
+      <c r="J62">
+        <v>2.5170955998029213e-13</v>
+      </c>
+      <c r="K62">
+        <v>2.5170955998029228e-13</v>
+      </c>
+      <c r="L62">
+        <v>2.5170955998029294e-13</v>
+      </c>
+      <c r="M62">
+        <v>0.90945750416491522</v>
+      </c>
+      <c r="N62">
+        <v>2.5170955998029289e-13</v>
+      </c>
+      <c r="O62">
+        <v>12</v>
+      </c>
+      <c r="P62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63">
+        <v>3.8047202158262487e-13</v>
+      </c>
+      <c r="C63">
+        <v>0.096175082139401749</v>
+      </c>
+      <c r="D63">
+        <v>3.8047202158262487e-13</v>
+      </c>
+      <c r="E63">
+        <v>3.8047202158262487e-13</v>
+      </c>
+      <c r="F63">
+        <v>0.15229536744115482</v>
+      </c>
+      <c r="G63">
+        <v>3.8047202158262467e-13</v>
+      </c>
+      <c r="H63">
+        <v>3.8047202158262467e-13</v>
+      </c>
+      <c r="I63">
+        <v>3.8047202158262467e-13</v>
+      </c>
+      <c r="J63">
+        <v>3.8047202158262467e-13</v>
+      </c>
+      <c r="K63">
+        <v>3.8047202158262487e-13</v>
+      </c>
+      <c r="L63">
+        <v>3.8047202158262487e-13</v>
+      </c>
+      <c r="M63">
+        <v>0.75152955041563885</v>
+      </c>
+      <c r="N63">
+        <v>3.8047202158262487e-13</v>
+      </c>
+      <c r="O63">
+        <v>12</v>
+      </c>
+      <c r="P63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="C64">
+        <v>0.0066794892417425724</v>
+      </c>
+      <c r="D64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="E64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="F64">
+        <v>2.5108373432706233e-10</v>
+      </c>
+      <c r="G64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="H64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="J64">
+        <v>0.050001526221970245</v>
+      </c>
+      <c r="K64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="L64">
+        <v>2.2198747166792753e-14</v>
+      </c>
+      <c r="M64">
+        <v>1.2435420231727969e-13</v>
+      </c>
+      <c r="N64">
+        <v>0.94331898428490157</v>
+      </c>
+      <c r="O64">
+        <v>13</v>
+      </c>
+      <c r="P64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="C65">
+        <v>5.7568611986581185e-05</v>
+      </c>
+      <c r="D65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="E65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="F65">
+        <v>0.000165329213043426</v>
+      </c>
+      <c r="G65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="H65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="J65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="K65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="L65">
+        <v>2.2204080024341944e-14</v>
+      </c>
+      <c r="M65">
+        <v>2.0328092105453779e-11</v>
+      </c>
+      <c r="N65">
+        <v>0.99977710215444204</v>
+      </c>
+      <c r="O65">
+        <v>13</v>
+      </c>
+      <c r="P65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="C66">
+        <v>0.00094407599765765782</v>
+      </c>
+      <c r="D66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="E66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="F66">
+        <v>7.7805148776154897e-06</v>
+      </c>
+      <c r="G66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="H66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="J66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="K66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="L66">
+        <v>2.2202839232716765e-14</v>
+      </c>
+      <c r="M66">
+        <v>2.2686602180107839e-11</v>
+      </c>
+      <c r="N66">
+        <v>0.99904814346457838</v>
+      </c>
+      <c r="O66">
+        <v>13</v>
+      </c>
+      <c r="P66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="C67">
+        <v>0.00081922977053223739</v>
+      </c>
+      <c r="D67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="E67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="F67">
+        <v>8.4960716834577855e-06</v>
+      </c>
+      <c r="G67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="H67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="J67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="K67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="L67">
+        <v>2.2203050144279535e-14</v>
+      </c>
+      <c r="M67">
+        <v>2.3923013199945518e-13</v>
+      </c>
+      <c r="N67">
+        <v>0.99917227415734522</v>
+      </c>
+      <c r="O67">
+        <v>13</v>
+      </c>
+      <c r="P67">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P67"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="28.5703125" customWidth="true"/>
+    <col min="3" max="3" width="28.5703125" customWidth="true"/>
+    <col min="4" max="4" width="28.5703125" customWidth="true"/>
+    <col min="5" max="5" width="28.5703125" customWidth="true"/>
+    <col min="6" max="6" width="28.5703125" customWidth="true"/>
+    <col min="7" max="7" width="28.5703125" customWidth="true"/>
+    <col min="8" max="8" width="28.5703125" customWidth="true"/>
+    <col min="9" max="9" width="28.5703125" customWidth="true"/>
+    <col min="10" max="10" width="28.5703125" customWidth="true"/>
+    <col min="11" max="11" width="28.5703125" customWidth="true"/>
+    <col min="12" max="12" width="28.5703125" customWidth="true"/>
+    <col min="13" max="13" width="28.5703125" customWidth="true"/>
+    <col min="14" max="14" width="29.7109375" customWidth="true"/>
+    <col min="15" max="15" width="10.28515625" customWidth="true"/>
+    <col min="16" max="16" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2">
+        <v>0.99999085868923154</v>
+      </c>
+      <c r="C2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="E2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="F2">
+        <v>9.1396962505400628e-06</v>
+      </c>
+      <c r="G2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="H2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="K2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="L2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="M2">
+        <v>1.6142956876579292e-09</v>
+      </c>
+      <c r="N2">
+        <v>2.2204444879239346e-14</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3">
+        <v>0.99999693611793505</v>
+      </c>
+      <c r="C3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.9403099264647228e-06</v>
+      </c>
+      <c r="G3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="H3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="K3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="L3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="M3">
+        <v>1.2357191650433102e-07</v>
+      </c>
+      <c r="N3">
+        <v>2.2204455259330739e-14</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4">
+        <v>0.9999885932549355</v>
+      </c>
+      <c r="C4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="F4">
+        <v>1.1405691435157729e-05</v>
+      </c>
+      <c r="G4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="H4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="K4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="L4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="M4">
+        <v>1.0534073061650358e-09</v>
+      </c>
+      <c r="N4">
+        <v>2.2204441010030851e-14</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5">
+        <v>0.99997435872716778</v>
+      </c>
+      <c r="C5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.5641164557852402e-05</v>
+      </c>
+      <c r="G5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="H5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="I5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="J5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="K5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="L5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="M5">
+        <v>1.0805245294017325e-10</v>
+      </c>
+      <c r="N5">
+        <v>2.220441669959876e-14</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6">
+        <v>0.99999844667767923</v>
+      </c>
+      <c r="C6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="D6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="E6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="F6">
+        <v>1.5490986971377021e-06</v>
+      </c>
+      <c r="G6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="H6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="K6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="L6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="M6">
+        <v>4.2234016112422429e-09</v>
+      </c>
+      <c r="N6">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7">
+        <v>0.99999855431187756</v>
+      </c>
+      <c r="C7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="D7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="E7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="F7">
+        <v>1.4425970980875487e-06</v>
+      </c>
+      <c r="G7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="H7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="K7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="L7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="M7">
+        <v>3.0908023703493657e-09</v>
+      </c>
+      <c r="N7">
+        <v>2.2204458023226708e-14</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8">
+        <v>0.99999844667767923</v>
+      </c>
+      <c r="C8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="D8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="E8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="F8">
+        <v>1.5490986971377021e-06</v>
+      </c>
+      <c r="G8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="H8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="I8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="J8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="K8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="L8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="M8">
+        <v>4.2234016112422429e-09</v>
+      </c>
+      <c r="N8">
+        <v>2.2204457839385305e-14</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="C9">
+        <v>0.86116896586485148</v>
+      </c>
+      <c r="D9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="E9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="F9">
+        <v>0.00035255967449696643</v>
+      </c>
+      <c r="G9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="H9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="J9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="K9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="L9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="M9">
+        <v>0.13847847446042974</v>
+      </c>
+      <c r="N9">
+        <v>2.2190870151741597e-14</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.98867633469596761</v>
+      </c>
+      <c r="D10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="E10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="F10">
+        <v>0.006737427936855717</v>
+      </c>
+      <c r="G10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="H10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="K10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="L10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="M10">
+        <v>0.0045862373669545752</v>
+      </c>
+      <c r="N10">
+        <v>2.2203144757863984e-14</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="C11">
+        <v>0.94751724413948901</v>
+      </c>
+      <c r="D11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="E11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="F11">
+        <v>0.051746724026694141</v>
+      </c>
+      <c r="G11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="K11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="L11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="M11">
+        <v>0.00073603183359496405</v>
+      </c>
+      <c r="N11">
+        <v>2.2194915072954295e-14</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.75820316747735195</v>
+      </c>
+      <c r="D12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="F12">
+        <v>9.5534441192744634e-05</v>
+      </c>
+      <c r="G12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="H12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="K12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="L12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="M12">
+        <v>0.24170129808123342</v>
+      </c>
+      <c r="N12">
+        <v>2.2194359884636292e-14</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.76955458658895626</v>
+      </c>
+      <c r="D13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="E13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.9988848177337387e-05</v>
+      </c>
+      <c r="G13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="K13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="L13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="M13">
+        <v>0.23041542456264433</v>
+      </c>
+      <c r="N13">
+        <v>2.2197197172439105e-14</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="C14">
+        <v>0.98022496381515378</v>
+      </c>
+      <c r="D14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="E14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="F14">
+        <v>0.00011552604278587195</v>
+      </c>
+      <c r="G14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="H14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="K14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="L14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="M14">
+        <v>0.019659510141838435</v>
+      </c>
+      <c r="N14">
+        <v>2.2199810221067795e-14</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="C15">
+        <v>0.98060998068254712</v>
+      </c>
+      <c r="D15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="E15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="F15">
+        <v>0.0030322431223023271</v>
+      </c>
+      <c r="G15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="K15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="L15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="M15">
+        <v>0.016357776194928605</v>
+      </c>
+      <c r="N15">
+        <v>2.2201236645158375e-14</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="C16">
+        <v>0.98721542569389509</v>
+      </c>
+      <c r="D16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="E16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="F16">
+        <v>0.00040170243070002321</v>
+      </c>
+      <c r="G16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="H16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="J16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="K16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="L16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="M16">
+        <v>0.012382871875182843</v>
+      </c>
+      <c r="N16">
+        <v>2.220022185188638e-14</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="C17">
+        <v>0.89827040232982447</v>
+      </c>
+      <c r="D17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="E17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="F17">
+        <v>0.000119997216765985</v>
+      </c>
+      <c r="G17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="H17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="I17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="J17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="K17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="L17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="M17">
+        <v>0.10160960045318748</v>
+      </c>
+      <c r="N17">
+        <v>2.2195155184988691e-14</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="C18">
+        <v>0.98696530289122264</v>
+      </c>
+      <c r="D18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="E18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="F18">
+        <v>0.0040531479327904855</v>
+      </c>
+      <c r="G18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="H18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="K18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="L18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="M18">
+        <v>0.0089815491757649704</v>
+      </c>
+      <c r="N18">
+        <v>2.2202913720473069e-14</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.99954595988615091</v>
+      </c>
+      <c r="E19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="F19">
+        <v>0.00045404011318535211</v>
+      </c>
+      <c r="G19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="H19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="J19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="K19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="L19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="M19">
+        <v>4.4172185197386859e-13</v>
+      </c>
+      <c r="N19">
+        <v>2.2203686010051481e-14</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="D20">
+        <v>0.99997976684518364</v>
+      </c>
+      <c r="E20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="F20">
+        <v>2.023315443342027e-05</v>
+      </c>
+      <c r="G20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="H20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="I20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="J20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="K20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="L20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="M20">
+        <v>1.609233351126718e-13</v>
+      </c>
+      <c r="N20">
+        <v>2.2204425935611312e-14</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="C21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="D21">
+        <v>0.9664032079268593</v>
+      </c>
+      <c r="E21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="F21">
+        <v>1.5958488689247674e-05</v>
+      </c>
+      <c r="G21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="H21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="I21">
+        <v>0.033580833584229614</v>
+      </c>
+      <c r="J21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="K21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="L21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="M21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="N21">
+        <v>2.2200103460083527e-14</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="D22">
+        <v>0.99998317389841473</v>
+      </c>
+      <c r="E22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="F22">
+        <v>1.6826101089999721e-05</v>
+      </c>
+      <c r="G22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="H22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="J22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="K22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="L22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="M22">
+        <v>2.7323850220159234e-13</v>
+      </c>
+      <c r="N22">
+        <v>2.2204431754345505e-14</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="C23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="D23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="E23">
+        <v>0.99685012366509151</v>
+      </c>
+      <c r="F23">
+        <v>6.4094514218417687e-07</v>
+      </c>
+      <c r="G23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="H23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="I23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="J23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="K23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="L23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="M23">
+        <v>0.0031492353895442794</v>
+      </c>
+      <c r="N23">
+        <v>2.2200321139773775e-14</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="D24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.99983133518572387</v>
+      </c>
+      <c r="F24">
+        <v>1.1203083464368673e-06</v>
+      </c>
+      <c r="G24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="H24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="J24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="K24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="L24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="M24">
+        <v>0.00016754450570769392</v>
+      </c>
+      <c r="N24">
+        <v>2.2204172549735224e-14</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="C25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="D25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="E25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="F25">
+        <v>0.56605073458468758</v>
+      </c>
+      <c r="G25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="H25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="I25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="J25">
+        <v>1.4918227246743378e-13</v>
+      </c>
+      <c r="K25">
+        <v>1.4918227246743388e-13</v>
+      </c>
+      <c r="L25">
+        <v>1.4918227246743388e-13</v>
+      </c>
+      <c r="M25">
+        <v>0.43394926541367113</v>
+      </c>
+      <c r="N25">
+        <v>1.4918227246743388e-13</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26">
+        <v>3.534208846218304e-14</v>
+      </c>
+      <c r="C26">
+        <v>3.534208846218304e-14</v>
+      </c>
+      <c r="D26">
+        <v>3.534208846218304e-14</v>
+      </c>
+      <c r="E26">
+        <v>3.5342088462183047e-14</v>
+      </c>
+      <c r="F26">
+        <v>0.36483107494746281</v>
+      </c>
+      <c r="G26">
+        <v>3.5342088462183028e-14</v>
+      </c>
+      <c r="H26">
+        <v>3.5342088462183028e-14</v>
+      </c>
+      <c r="I26">
+        <v>3.5342088462183028e-14</v>
+      </c>
+      <c r="J26">
+        <v>3.5342088462183028e-14</v>
+      </c>
+      <c r="K26">
+        <v>3.5342088462183028e-14</v>
+      </c>
+      <c r="L26">
+        <v>3.5342088462183028e-14</v>
+      </c>
+      <c r="M26">
+        <v>0.63516892505214828</v>
+      </c>
+      <c r="N26">
+        <v>3.5342088462183028e-14</v>
+      </c>
+      <c r="O26">
+        <v>12</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="D27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="E27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="F27">
+        <v>0.060289732397589398</v>
+      </c>
+      <c r="G27">
+        <v>0.9396112470755259</v>
+      </c>
+      <c r="H27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="K27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="L27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="M27">
+        <v>9.9020526662748783e-05</v>
+      </c>
+      <c r="N27">
+        <v>2.2197366878207427e-14</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="C28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="E28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="F28">
+        <v>0.0041489236849089712</v>
+      </c>
+      <c r="G28">
+        <v>0.99558404245991172</v>
+      </c>
+      <c r="H28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="K28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="L28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="M28">
+        <v>0.00026703385495726049</v>
+      </c>
+      <c r="N28">
+        <v>2.2200556149538525e-14</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="E29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="F29">
+        <v>0.012050258262041808</v>
+      </c>
+      <c r="G29">
+        <v>0.98787964669424788</v>
+      </c>
+      <c r="H29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="K29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="L29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="M29">
+        <v>7.0095043488280304e-05</v>
+      </c>
+      <c r="N29">
+        <v>2.2200308221815091e-14</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="E30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="F30">
+        <v>0.0013768574451636323</v>
+      </c>
+      <c r="G30">
+        <v>0.98183333658083505</v>
+      </c>
+      <c r="H30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="K30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="L30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="M30">
+        <v>0.016789805973779208</v>
+      </c>
+      <c r="N30">
+        <v>2.2200044961702277e-14</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="E31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="F31">
+        <v>0.0032569836613840224</v>
+      </c>
+      <c r="G31">
+        <v>0.99645624953299672</v>
+      </c>
+      <c r="H31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="K31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="L31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="M31">
+        <v>0.00028676680539726964</v>
+      </c>
+      <c r="N31">
+        <v>2.2200494544387706e-14</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="E32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.01091375098654211</v>
+      </c>
+      <c r="G32">
+        <v>0.98839023492443789</v>
+      </c>
+      <c r="H32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="I32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="K32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="L32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="M32">
+        <v>0.00069601408879790144</v>
+      </c>
+      <c r="N32">
+        <v>2.2200541688315755e-14</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="E33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="F33">
+        <v>5.2221716900509955e-09</v>
+      </c>
+      <c r="G33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="H33">
+        <v>0.99914087380391703</v>
+      </c>
+      <c r="I33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="J33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="K33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="L33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="M33">
+        <v>0.00085912097368914917</v>
+      </c>
+      <c r="N33">
+        <v>2.2202996777006727e-14</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="F34">
+        <v>4.1777038495219642e-09</v>
+      </c>
+      <c r="G34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="H34">
+        <v>0.99872859001229874</v>
+      </c>
+      <c r="I34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="J34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="K34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="L34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="M34">
+        <v>0.0012714058097752518</v>
+      </c>
+      <c r="N34">
+        <v>2.2202296987598449e-14</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="C35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="D35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="E35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="F35">
+        <v>9.054158067139329e-09</v>
+      </c>
+      <c r="G35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="H35">
+        <v>0.99959552450932831</v>
+      </c>
+      <c r="I35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="J35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="K35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="L35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="M35">
+        <v>0.00040446643629163978</v>
+      </c>
+      <c r="N35">
+        <v>2.2203770454728439e-14</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="C36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="E36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="F36">
+        <v>1.2579206578251184e-08</v>
+      </c>
+      <c r="G36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="H36">
+        <v>0.99924549566247511</v>
+      </c>
+      <c r="I36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="J36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="K36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="L36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="M36">
+        <v>0.00075449175809615479</v>
+      </c>
+      <c r="N36">
+        <v>2.2203174628024898e-14</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="C37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="D37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="E37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="F37">
+        <v>1.8488694205545617e-09</v>
+      </c>
+      <c r="G37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="H37">
+        <v>0.99594237311667522</v>
+      </c>
+      <c r="I37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="J37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="K37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="L37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="M37">
+        <v>0.0040576250342333276</v>
+      </c>
+      <c r="N37">
+        <v>2.2200326735113806e-14</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="C38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="D38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="E38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="F38">
+        <v>1.330948120142596e-08</v>
+      </c>
+      <c r="G38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="H38">
+        <v>0.99731604069924673</v>
+      </c>
+      <c r="I38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="J38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="K38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="L38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="M38">
+        <v>0.0026839459910501691</v>
+      </c>
+      <c r="N38">
+        <v>2.2200313929423937e-14</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="C39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="D39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="E39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="F39">
+        <v>2.5111265482246599e-08</v>
+      </c>
+      <c r="G39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="H39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="I39">
+        <v>0.98621921274894808</v>
+      </c>
+      <c r="J39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="K39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="L39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="M39">
+        <v>0.013780762139564405</v>
+      </c>
+      <c r="N39">
+        <v>2.2200421395703844e-14</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="C40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="D40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="E40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="F40">
+        <v>0.036766977828610825</v>
+      </c>
+      <c r="G40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="H40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="I40">
+        <v>0.96300521940003481</v>
+      </c>
+      <c r="J40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="K40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="L40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="M40">
+        <v>0.00022780277113248218</v>
+      </c>
+      <c r="N40">
+        <v>2.2197891851416777e-14</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="C41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="D41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="F41">
+        <v>1.5475700665970128e-10</v>
+      </c>
+      <c r="G41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="H41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="I41">
+        <v>0.91282055584328325</v>
+      </c>
+      <c r="J41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="K41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="L41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="M41">
+        <v>0.087179444001737771</v>
+      </c>
+      <c r="N41">
+        <v>2.2201060223153523e-14</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="C42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="F42">
+        <v>1.0934068132666306e-13</v>
+      </c>
+      <c r="G42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="H42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="I42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="J42">
+        <v>0.99891414443943582</v>
+      </c>
+      <c r="K42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="L42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="M42">
+        <v>0.0010858555602327464</v>
+      </c>
+      <c r="N42">
+        <v>2.2202611727192802e-14</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+      <c r="P42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="C43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="F43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="G43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="H43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="I43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="J43">
+        <v>0.99997244654811024</v>
+      </c>
+      <c r="K43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="L43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="M43">
+        <v>2.7553451645531286e-05</v>
+      </c>
+      <c r="N43">
+        <v>2.220441343403943e-14</v>
+      </c>
+      <c r="O43">
+        <v>9</v>
+      </c>
+      <c r="P43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="F44">
+        <v>1.6242114146829605e-12</v>
+      </c>
+      <c r="G44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="I44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="J44">
+        <v>0.99984374096979933</v>
+      </c>
+      <c r="K44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="M44">
+        <v>0.00015625902835444933</v>
+      </c>
+      <c r="N44">
+        <v>2.2204193719032401e-14</v>
+      </c>
+      <c r="O44">
+        <v>9</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="C45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="D45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="E45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="F45">
+        <v>1.2118909426329168e-11</v>
+      </c>
+      <c r="G45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="H45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="I45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="J45">
+        <v>0.99950250148494701</v>
+      </c>
+      <c r="K45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="L45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="M45">
+        <v>0.00049749850271204178</v>
+      </c>
+      <c r="N45">
+        <v>2.2203611988998867e-14</v>
+      </c>
+      <c r="O45">
+        <v>9</v>
+      </c>
+      <c r="P45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="C46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="F46">
+        <v>0.00015259653812594402</v>
+      </c>
+      <c r="G46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="H46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="I46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="J46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="K46">
+        <v>0.9998474034616297</v>
+      </c>
+      <c r="L46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="M46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="N46">
+        <v>2.2204199969023566e-14</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="E47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="F47">
+        <v>1.6766089455780184e-05</v>
+      </c>
+      <c r="G47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="H47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="J47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="K47">
+        <v>0.99998323391029997</v>
+      </c>
+      <c r="L47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="M47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="N47">
+        <v>2.2204431856837781e-14</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="F48">
+        <v>1.5614367243094447e-06</v>
+      </c>
+      <c r="G48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="H48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="J48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="K48">
+        <v>0.99999843856303139</v>
+      </c>
+      <c r="L48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="M48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="N48">
+        <v>2.2204457825525284e-14</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="F49">
+        <v>1.5013994258611759e-06</v>
+      </c>
+      <c r="G49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="H49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="J49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="K49">
+        <v>0.99999849860032985</v>
+      </c>
+      <c r="L49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="M49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="N49">
+        <v>2.22044579280702e-14</v>
+      </c>
+      <c r="O49">
+        <v>10</v>
+      </c>
+      <c r="P49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="C50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="D50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="E50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="F50">
+        <v>2.8282942792861724e-07</v>
+      </c>
+      <c r="G50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="H50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="I50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="J50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="K50">
+        <v>0.99999971717032787</v>
+      </c>
+      <c r="L50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="M50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="N50">
+        <v>2.2204460009420016e-14</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="C51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="E51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="F51">
+        <v>6.3503180513123658e-06</v>
+      </c>
+      <c r="G51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="H51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="I51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="J51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="K51">
+        <v>0.99999364968170446</v>
+      </c>
+      <c r="L51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="M51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="N51">
+        <v>2.2204449646136419e-14</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="F52">
+        <v>6.693133053261403e-14</v>
+      </c>
+      <c r="G52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="H52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="J52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="K52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="L52">
+        <v>0.99999981871029753</v>
+      </c>
+      <c r="M52">
+        <v>1.8128941361238549e-07</v>
+      </c>
+      <c r="N52">
+        <v>2.220446018285368e-14</v>
+      </c>
+      <c r="O52">
+        <v>11</v>
+      </c>
+      <c r="P52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="C53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="D53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="E53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="F53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="G53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="H53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="J53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="K53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="L53">
+        <v>0.99999980683819323</v>
+      </c>
+      <c r="M53">
+        <v>1.9316156263353588e-07</v>
+      </c>
+      <c r="N53">
+        <v>2.2204460162575695e-14</v>
+      </c>
+      <c r="O53">
+        <v>11</v>
+      </c>
+      <c r="P53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="C54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="D54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="E54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="F54">
+        <v>3.1886125353703069e-13</v>
+      </c>
+      <c r="G54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="H54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="J54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="K54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="L54">
+        <v>0.9999997904941258</v>
+      </c>
+      <c r="M54">
+        <v>2.095053332900057e-07</v>
+      </c>
+      <c r="N54">
+        <v>2.2204460134659517e-14</v>
+      </c>
+      <c r="O54">
+        <v>11</v>
+      </c>
+      <c r="P54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="C55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="G55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="H55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="J55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="K55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="L55">
+        <v>0.99999984431725486</v>
+      </c>
+      <c r="M55">
+        <v>1.5568250094909755e-07</v>
+      </c>
+      <c r="N55">
+        <v>2.2204460226591193e-14</v>
+      </c>
+      <c r="O55">
+        <v>11</v>
+      </c>
+      <c r="P55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="C56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="D56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="E56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="F56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="G56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="H56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="I56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="J56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="K56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="L56">
+        <v>0.99999986946636121</v>
+      </c>
+      <c r="M56">
+        <v>1.3053339459008838e-07</v>
+      </c>
+      <c r="N56">
+        <v>2.2204460269546723e-14</v>
+      </c>
+      <c r="O56">
+        <v>11</v>
+      </c>
+      <c r="P56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="C57">
+        <v>0.23483108680637788</v>
+      </c>
+      <c r="D57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="E57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="F57">
+        <v>0.33848179207145906</v>
+      </c>
+      <c r="G57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="H57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="I57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="J57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="K57">
+        <v>1.2000741994167851e-13</v>
+      </c>
+      <c r="L57">
+        <v>1.2000741994167859e-13</v>
+      </c>
+      <c r="M57">
+        <v>0.42668712112096319</v>
+      </c>
+      <c r="N57">
+        <v>1.2000741994167864e-13</v>
+      </c>
+      <c r="O57">
+        <v>12</v>
+      </c>
+      <c r="P57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="C58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="D58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="E58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="F58">
+        <v>0.34024355269532991</v>
+      </c>
+      <c r="G58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="H58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="I58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="J58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="K58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="L58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="M58">
+        <v>0.65975644730442595</v>
+      </c>
+      <c r="N58">
+        <v>2.2203175139892812e-14</v>
+      </c>
+      <c r="O58">
+        <v>12</v>
+      </c>
+      <c r="P58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59">
+        <v>2.225127963674657e-14</v>
+      </c>
+      <c r="C59">
+        <v>2.225127963674657e-14</v>
+      </c>
+      <c r="D59">
+        <v>2.225127963674657e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.225127963674657e-14</v>
+      </c>
+      <c r="F59">
+        <v>0.039026928516381808</v>
+      </c>
+      <c r="G59">
+        <v>2.2251279636746564e-14</v>
+      </c>
+      <c r="H59">
+        <v>2.2251279636746564e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2251279636746564e-14</v>
+      </c>
+      <c r="J59">
+        <v>2.2251279636746564e-14</v>
+      </c>
+      <c r="K59">
+        <v>2.2251279636746561e-14</v>
+      </c>
+      <c r="L59">
+        <v>2.2251279636746561e-14</v>
+      </c>
+      <c r="M59">
+        <v>0.96097307148337341</v>
+      </c>
+      <c r="N59">
+        <v>2.2251279636746561e-14</v>
+      </c>
+      <c r="O59">
+        <v>12</v>
+      </c>
+      <c r="P59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="C60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="D60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="E60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="F60">
+        <v>0.055222738241990851</v>
+      </c>
+      <c r="G60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="H60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="J60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="K60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="L60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="M60">
+        <v>0.94477726175776489</v>
+      </c>
+      <c r="N60">
+        <v>2.2200798359355394e-14</v>
+      </c>
+      <c r="O60">
+        <v>12</v>
+      </c>
+      <c r="P60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61">
+        <v>2.0530707176136609e-11</v>
+      </c>
+      <c r="C61">
+        <v>2.0530707176136609e-11</v>
+      </c>
+      <c r="D61">
+        <v>2.0530707176136609e-11</v>
+      </c>
+      <c r="E61">
+        <v>2.0530707176136612e-11</v>
+      </c>
+      <c r="F61">
+        <v>0.37154609441854419</v>
+      </c>
+      <c r="G61">
+        <v>2.0530707176136631e-11</v>
+      </c>
+      <c r="H61">
+        <v>2.0530707176136631e-11</v>
+      </c>
+      <c r="I61">
+        <v>2.0530707176136631e-11</v>
+      </c>
+      <c r="J61">
+        <v>2.0530707176136631e-11</v>
+      </c>
+      <c r="K61">
+        <v>2.0530707176136609e-11</v>
+      </c>
+      <c r="L61">
+        <v>2.0530707176136609e-11</v>
+      </c>
+      <c r="M61">
+        <v>0.62845390535561785</v>
+      </c>
+      <c r="N61">
+        <v>2.0530707176136609e-11</v>
+      </c>
+      <c r="O61">
+        <v>12</v>
+      </c>
+      <c r="P61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62">
+        <v>6.8179822042720844e-14</v>
+      </c>
+      <c r="C62">
+        <v>6.8179822042720844e-14</v>
+      </c>
+      <c r="D62">
+        <v>6.817982204272092e-14</v>
+      </c>
+      <c r="E62">
+        <v>6.8179822042721084e-14</v>
+      </c>
+      <c r="F62">
+        <v>0.088167110081442374</v>
+      </c>
+      <c r="G62">
+        <v>6.8179822042720971e-14</v>
+      </c>
+      <c r="H62">
+        <v>6.8179822042720933e-14</v>
+      </c>
+      <c r="I62">
+        <v>6.8179822042720933e-14</v>
+      </c>
+      <c r="J62">
+        <v>6.8179822042720933e-14</v>
+      </c>
+      <c r="K62">
+        <v>6.8179822042720933e-14</v>
+      </c>
+      <c r="L62">
+        <v>6.8179822042720933e-14</v>
+      </c>
+      <c r="M62">
+        <v>0.91183288991780764</v>
+      </c>
+      <c r="N62">
+        <v>6.8179822042720933e-14</v>
+      </c>
+      <c r="O62">
+        <v>12</v>
+      </c>
+      <c r="P62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B63">
+        <v>3.6339723623214187e-14</v>
+      </c>
+      <c r="C63">
+        <v>3.6339723623214187e-14</v>
+      </c>
+      <c r="D63">
+        <v>3.6339723623214307e-14</v>
+      </c>
+      <c r="E63">
+        <v>3.6339723623214699e-14</v>
+      </c>
+      <c r="F63">
+        <v>0.00068723967836659854</v>
+      </c>
+      <c r="G63">
+        <v>3.6339723623214522e-14</v>
+      </c>
+      <c r="H63">
+        <v>3.6339723623214446e-14</v>
+      </c>
+      <c r="I63">
+        <v>3.6339723623214446e-14</v>
+      </c>
+      <c r="J63">
+        <v>3.6339723623214446e-14</v>
+      </c>
+      <c r="K63">
+        <v>3.6339723623214648e-14</v>
+      </c>
+      <c r="L63">
+        <v>3.6339723623214819e-14</v>
+      </c>
+      <c r="M63">
+        <v>0.99931276032123362</v>
+      </c>
+      <c r="N63">
+        <v>3.633972362321473e-14</v>
+      </c>
+      <c r="O63">
+        <v>12</v>
+      </c>
+      <c r="P63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="D64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="E64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="F64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="G64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="H64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="J64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="K64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="L64">
+        <v>2.2204445953629772e-14</v>
+      </c>
+      <c r="M64">
+        <v>8.5122567276950592e-06</v>
+      </c>
+      <c r="N64">
+        <v>0.99999148774302793</v>
+      </c>
+      <c r="O64">
+        <v>13</v>
+      </c>
+      <c r="P64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="D65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="E65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="F65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="G65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="H65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="J65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="K65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="L65">
+        <v>2.2204454644211809e-14</v>
+      </c>
+      <c r="M65">
+        <v>3.4240210837267548e-06</v>
+      </c>
+      <c r="N65">
+        <v>0.99999657597867198</v>
+      </c>
+      <c r="O65">
+        <v>13</v>
+      </c>
+      <c r="P65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="C66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="D66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="E66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="F66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="G66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="H66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="J66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="K66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="L66">
+        <v>2.2204445899361648e-14</v>
+      </c>
+      <c r="M66">
+        <v>8.5440305686864099e-06</v>
+      </c>
+      <c r="N66">
+        <v>0.99999145596918715</v>
+      </c>
+      <c r="O66">
+        <v>13</v>
+      </c>
+      <c r="P66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="C67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="D67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="E67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="F67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="G67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="H67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="J67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="K67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="L67">
+        <v>2.2204435562023708e-14</v>
+      </c>
+      <c r="M67">
+        <v>1.459662199980148e-05</v>
+      </c>
+      <c r="N67">
+        <v>0.99998540337775588</v>
+      </c>
+      <c r="O67">
+        <v>13</v>
+      </c>
+      <c r="P67">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>